--- a/data/trans_dic/P19D_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R2-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.9028288527843429</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.9262887074883123</v>
+        <v>0.9262887074883122</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9021393372538473</v>
+        <v>0.9049189805390857</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8111170813616434</v>
+        <v>0.8115311615863355</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8645513907676072</v>
+        <v>0.8669457087315968</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8756950463373623</v>
+        <v>0.8762452758886685</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9217622371070859</v>
+        <v>0.9238708670471527</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8543811201876702</v>
+        <v>0.8491963686476593</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8852936144939527</v>
+        <v>0.8849993306901391</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9308937172255808</v>
+        <v>0.9303931892267867</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9227533278880994</v>
+        <v>0.9228996393235949</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.8424721722969317</v>
+        <v>0.8445656141382668</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.8824878070516718</v>
+        <v>0.8840088877733906</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.9097213788496576</v>
+        <v>0.9104627984156051</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9518502092067754</v>
+        <v>0.9543379750024925</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8736124829645682</v>
+        <v>0.8740020675214516</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9189723007474949</v>
+        <v>0.9200970848327283</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9287340315375938</v>
+        <v>0.9262462181676759</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9607745242249311</v>
+        <v>0.9620504256065787</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.906969288332142</v>
+        <v>0.9032567002530429</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9347826793512993</v>
+        <v>0.9328493492924982</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9574178984366104</v>
+        <v>0.95795295203915</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9523146501748023</v>
+        <v>0.9529684944843912</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8811173168076074</v>
+        <v>0.8830219138220434</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9192901463609219</v>
+        <v>0.9212935481172974</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9388296506688605</v>
+        <v>0.9388460504564037</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.9143764929920426</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.9285089948354407</v>
+        <v>0.9285089948354404</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.911971549022716</v>
+        <v>0.9136128962703148</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.828600307929678</v>
+        <v>0.8238291785758582</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8926321634170223</v>
+        <v>0.8949825001851245</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8956519797817095</v>
+        <v>0.8952263981277213</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9125115724468212</v>
+        <v>0.9119649759905499</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8550642172602758</v>
+        <v>0.8536955577808043</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8935399638010355</v>
+        <v>0.8891623043125199</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9259719914723075</v>
+        <v>0.9270996251558381</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9185662136353744</v>
+        <v>0.918136260868606</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.8468449837309716</v>
+        <v>0.8499221963874071</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8985853782003894</v>
+        <v>0.8994362771542117</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.9170735187236746</v>
+        <v>0.9156069467320662</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9513213065018928</v>
+        <v>0.9504078684194578</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8767104468787073</v>
+        <v>0.8767053438911587</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9338571832636683</v>
+        <v>0.9355874379155616</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9335640389513918</v>
+        <v>0.9344021881521903</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9494507980716534</v>
+        <v>0.9486630300982101</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9002997118004251</v>
+        <v>0.8998977404010067</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9340448395532521</v>
+        <v>0.930105686412963</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9524008533692925</v>
+        <v>0.9534524439609694</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9465224757996884</v>
+        <v>0.9446309514226479</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.8815519825308729</v>
+        <v>0.8829279700820685</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9283380878661383</v>
+        <v>0.9279522709374949</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.939415169079478</v>
+        <v>0.9387344256487802</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.9195941221951727</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.9361274598317282</v>
+        <v>0.9361274598317281</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8827158238409365</v>
+        <v>0.884000855201209</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8198456441767158</v>
+        <v>0.8205423289376639</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8858924415389452</v>
+        <v>0.8841107568871048</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8894601445349589</v>
+        <v>0.8910479427251653</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9113926635069444</v>
+        <v>0.9072755473392063</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8750467114993273</v>
+        <v>0.8753487200404013</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8986145616144907</v>
+        <v>0.9029674194844459</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9334747012823917</v>
+        <v>0.9347241917578576</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9051578836416454</v>
+        <v>0.9064634349307318</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.8566288309747205</v>
+        <v>0.8581384000038961</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.9017088610956323</v>
+        <v>0.9022479442313819</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.9202426387696292</v>
+        <v>0.9200854340336692</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9337051211922478</v>
+        <v>0.9377755616974511</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8788407948608178</v>
+        <v>0.8796558627290613</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9350397939462173</v>
+        <v>0.9353516389056812</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9414638690303752</v>
+        <v>0.9437368674195329</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9516498975989059</v>
+        <v>0.9501084928912727</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9215668765428505</v>
+        <v>0.9218545571413462</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9451055264972663</v>
+        <v>0.9492305338488412</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9633531170477894</v>
+        <v>0.9640426355790647</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9375885731934207</v>
+        <v>0.9369304389420345</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8944405734067773</v>
+        <v>0.8945701811482987</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9348141795669804</v>
+        <v>0.9351780713190668</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9491055842753205</v>
+        <v>0.9490075689876416</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.9010963994048445</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9149992034191023</v>
+        <v>0.9149992034191022</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.9179288634101876</v>
@@ -1093,7 +1093,7 @@
         <v>0.8981667136216556</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.9335831900046107</v>
+        <v>0.9335831900046108</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.9230436307374189</v>
@@ -1105,7 +1105,7 @@
         <v>0.8995381443349293</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.9248806903634555</v>
+        <v>0.9248806903634554</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9095441667793329</v>
+        <v>0.9100492223740519</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8737023628910709</v>
+        <v>0.8720263230197886</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8793764678688716</v>
+        <v>0.87939887400258</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8935137878093654</v>
+        <v>0.893030388200806</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8965810044517705</v>
+        <v>0.8957762059786277</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8797133950155851</v>
+        <v>0.879687143603476</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8763318836980066</v>
+        <v>0.8749450081391433</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9202537609639103</v>
+        <v>0.919795490856768</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9078109102506658</v>
+        <v>0.9082277091702747</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.8830724761301594</v>
+        <v>0.8835725182657885</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.8819033984827994</v>
+        <v>0.8840784948897249</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.9123516972997558</v>
+        <v>0.9144367074461396</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9451679635757678</v>
+        <v>0.9454398728844008</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9167443248746673</v>
+        <v>0.9160358161091398</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9205594669791546</v>
+        <v>0.9201108982349637</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9319979064084379</v>
+        <v>0.932866869950677</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9367404004963149</v>
+        <v>0.9360169495116896</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9206205479334397</v>
+        <v>0.918770943547035</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9171604863185461</v>
+        <v>0.9186322698416486</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9469727343042696</v>
+        <v>0.9460867715184292</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.935192063147924</v>
+        <v>0.9353913876752584</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9131926405324874</v>
+        <v>0.9120403998836036</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9147467581241161</v>
+        <v>0.9135295134331632</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9355644756875259</v>
+        <v>0.9366090018736631</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.910968402716848</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.9417684334446808</v>
+        <v>0.9417684334446809</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.9288503938444473</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9157524169740296</v>
+        <v>0.9146097781442035</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8504193355095083</v>
+        <v>0.8492600605694383</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8946395940047963</v>
+        <v>0.8949057411227108</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9037188612420568</v>
+        <v>0.9023612898109542</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9207509202546594</v>
+        <v>0.9200901789268838</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8787393723478415</v>
+        <v>0.8790351840616908</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8986812734593571</v>
+        <v>0.8993144689921403</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9349553931952514</v>
+        <v>0.9343932869066346</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9209697591619982</v>
+        <v>0.9211332048024798</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.8687549762144509</v>
+        <v>0.8687170778241816</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.9000973186854777</v>
+        <v>0.9012459202398545</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.9225232489840244</v>
+        <v>0.921720172625153</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9372023559187918</v>
+        <v>0.9370137923069907</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8767606046057091</v>
+        <v>0.8765999324802164</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9180757514632076</v>
+        <v>0.9178322158716045</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9250224615811765</v>
+        <v>0.9247161490936596</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9401147220725058</v>
+        <v>0.9398167782690368</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9019736222119958</v>
+        <v>0.9011752475768059</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.921283425139387</v>
+        <v>0.9211353620215241</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9490147895323103</v>
+        <v>0.9482422199172758</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9360254547302681</v>
+        <v>0.9358842475605654</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.8853815923344154</v>
+        <v>0.8858913269453247</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9167797124740499</v>
+        <v>0.9165966014704101</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9352617387797481</v>
+        <v>0.9341371474963417</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>431076</v>
+        <v>432404</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>489992</v>
+        <v>490242</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>453883</v>
+        <v>455140</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>580191</v>
+        <v>580555</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>496004</v>
+        <v>497139</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>542302</v>
+        <v>539011</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>481921</v>
+        <v>481761</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>656726</v>
+        <v>656373</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>937463</v>
+        <v>937612</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1043676</v>
+        <v>1046270</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>943694</v>
+        <v>945320</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1244524</v>
+        <v>1245539</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>454829</v>
+        <v>456018</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>527745</v>
+        <v>527980</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>482454</v>
+        <v>483045</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>615332</v>
+        <v>613684</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>516997</v>
+        <v>517683</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>575682</v>
+        <v>573325</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>508861</v>
+        <v>507809</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>675438</v>
+        <v>675816</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>967495</v>
+        <v>968160</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1091551</v>
+        <v>1093911</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>983048</v>
+        <v>985191</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1284345</v>
+        <v>1284368</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>658560</v>
+        <v>659745</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>716510</v>
+        <v>712384</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>728697</v>
+        <v>730615</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>910085</v>
+        <v>909653</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>733866</v>
+        <v>733426</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>770366</v>
+        <v>769133</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>774139</v>
+        <v>770346</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>973338</v>
+        <v>974524</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1402057</v>
+        <v>1401401</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1495246</v>
+        <v>1500680</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1512067</v>
+        <v>1513499</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1895837</v>
+        <v>1892805</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>686976</v>
+        <v>686316</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>758112</v>
+        <v>758107</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>762351</v>
+        <v>763763</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>948608</v>
+        <v>949460</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>763573</v>
+        <v>762939</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>811121</v>
+        <v>810758</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>809231</v>
+        <v>805818</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1001119</v>
+        <v>1002224</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1444728</v>
+        <v>1441841</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1556527</v>
+        <v>1558957</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1562132</v>
+        <v>1561483</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1942023</v>
+        <v>1940616</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>481159</v>
+        <v>481859</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>520640</v>
+        <v>521082</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>486632</v>
+        <v>485654</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>687743</v>
+        <v>688971</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>532808</v>
+        <v>530401</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>594538</v>
+        <v>594743</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>519819</v>
+        <v>522337</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>747569</v>
+        <v>748570</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1022555</v>
+        <v>1024030</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1126023</v>
+        <v>1128007</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1016929</v>
+        <v>1017537</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1448517</v>
+        <v>1448270</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>508952</v>
+        <v>511171</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>558104</v>
+        <v>558622</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>513630</v>
+        <v>513801</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>727953</v>
+        <v>729711</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>556343</v>
+        <v>555442</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>626146</v>
+        <v>626341</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>546712</v>
+        <v>549099</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>771497</v>
+        <v>772050</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1059192</v>
+        <v>1058448</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1175726</v>
+        <v>1175896</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1054265</v>
+        <v>1054675</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1493949</v>
+        <v>1493795</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>647623</v>
+        <v>647982</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>702157</v>
+        <v>700810</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>678627</v>
+        <v>678644</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>842738</v>
+        <v>842282</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>729815</v>
+        <v>729160</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>816700</v>
+        <v>816675</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>768404</v>
+        <v>767188</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>985547</v>
+        <v>985056</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1385345</v>
+        <v>1385981</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1529504</v>
+        <v>1530371</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1453866</v>
+        <v>1457452</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1837589</v>
+        <v>1841789</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>672988</v>
+        <v>673182</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>736748</v>
+        <v>736179</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>710409</v>
+        <v>710062</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>879035</v>
+        <v>879855</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>762505</v>
+        <v>761916</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>854676</v>
+        <v>852959</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>804204</v>
+        <v>805494</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1014161</v>
+        <v>1013213</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1427129</v>
+        <v>1427433</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1581673</v>
+        <v>1579678</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1508010</v>
+        <v>1506004</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1884343</v>
+        <v>1886447</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2250081</v>
+        <v>2247273</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2472611</v>
+        <v>2469241</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2381858</v>
+        <v>2382567</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>3068171</v>
+        <v>3063562</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2523720</v>
+        <v>2521909</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2762301</v>
+        <v>2763230</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2575660</v>
+        <v>2577475</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3392419</v>
+        <v>3390380</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4787220</v>
+        <v>4788070</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>5256837</v>
+        <v>5256608</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>4976107</v>
+        <v>4982457</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>6479323</v>
+        <v>6473682</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2302785</v>
+        <v>2302322</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2549199</v>
+        <v>2548732</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2444254</v>
+        <v>2443605</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>3140498</v>
+        <v>3139458</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2576795</v>
+        <v>2575979</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2835337</v>
+        <v>2832827</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2640439</v>
+        <v>2640014</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>3443433</v>
+        <v>3440630</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>4865480</v>
+        <v>4864746</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>5357445</v>
+        <v>5360529</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5068334</v>
+        <v>5067322</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>6568791</v>
+        <v>6560893</v>
       </c>
     </row>
     <row r="24">
